--- a/减脂塑形/体重记录.xlsx
+++ b/减脂塑形/体重记录.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyong/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyong/Desktop/GitHub/kakatool/减脂塑形/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="1220" windowWidth="27560" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="1760" yWindow="700" windowWidth="27560" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -36,6 +36,120 @@
     <t>体重</t>
     <rPh sb="0" eb="1">
       <t>ti zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <rPh sb="0" eb="1">
+      <t>dian hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐睿</t>
+    <rPh sb="0" eb="1">
+      <t>qi rui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>询问人员</t>
+    <rPh sb="0" eb="1">
+      <t>xun wen</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定人员</t>
+    <rPh sb="0" eb="1">
+      <t>que d</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许帅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李冠霖</t>
+    <rPh sb="0" eb="1">
+      <t>li</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>guan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王帅</t>
+    <rPh sb="0" eb="1">
+      <t>wang shuai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘泉</t>
+    <rPh sb="0" eb="1">
+      <t>gan quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾南宁</t>
+    <rPh sb="0" eb="1">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>nan ning</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗明旭</t>
+    <rPh sb="0" eb="1">
+      <t>luo</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ming</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘小东</t>
+    <rPh sb="0" eb="1">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李沛然</t>
+    <rPh sb="0" eb="1">
+      <t>li</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>pei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ran</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -77,16 +191,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -366,32 +504,369 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
         <v>42792</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>71.040000000000006</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5">
+        <v>18304050059</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3">
+        <v>15993976362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F32" s="3"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F33" s="3"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F34" s="3"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F35" s="3"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F36" s="3"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F37" s="3"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F38" s="3"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F39" s="3"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F40" s="3"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F41" s="3"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/减脂塑形/体重记录.xlsx
+++ b/减脂塑形/体重记录.xlsx
@@ -507,7 +507,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -563,8 +563,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="4">
+        <v>42793</v>
+      </c>
+      <c r="B3" s="3">
+        <v>70.37</v>
+      </c>
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>

--- a/减脂塑形/体重记录.xlsx
+++ b/减脂塑形/体重记录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="700" windowWidth="27560" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="3980" yWindow="1380" windowWidth="27560" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -150,6 +150,13 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ran</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大娃</t>
+    <rPh sb="0" eb="1">
+      <t>da wa</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -506,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -579,8 +586,12 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="4">
+        <v>42794</v>
+      </c>
+      <c r="B4" s="3">
+        <v>70.62</v>
+      </c>
       <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
@@ -591,8 +602,12 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="4">
+        <v>42795</v>
+      </c>
+      <c r="B5" s="3">
+        <v>70.62</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
@@ -623,7 +638,9 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>

--- a/减脂塑形/体重记录.xlsx
+++ b/减脂塑形/体重记录.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyong/Desktop/GitHub/kakatool/减脂塑形/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ly/Desktop/个人/kakatool/减脂塑形/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="1380" windowWidth="27560" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -616,8 +616,12 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="4">
+        <v>42796</v>
+      </c>
+      <c r="B6" s="3">
+        <v>70.62</v>
+      </c>
       <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
@@ -626,8 +630,12 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="4">
+        <v>42797</v>
+      </c>
+      <c r="B7" s="3">
+        <v>70.62</v>
+      </c>
       <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
